--- a/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
+++ b/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work/src/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA499FB4-9DA5-8C4C-81A3-A383B7995352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC7D6BE-1039-394C-9F52-CD367DB26099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2820" windowWidth="26300" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="4240" windowWidth="23200" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>magnus</author>
   </authors>
   <commentList>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AE1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="S31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{D506501A-5809-FE47-A3F9-EDCE56D89C5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Magnus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this is 5exon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X31" authorId="0" shapeId="0" xr:uid="{B486E5D2-2212-2F44-8019-46EC1E0B0C64}">
       <text>
         <r>
           <rPr>
@@ -178,7 +211,106 @@
         </r>
       </text>
     </comment>
-    <comment ref="U31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="Y31" authorId="0" shapeId="0" xr:uid="{71D1A44A-13C8-9F47-9B07-0C5E34B46028}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Magnus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>mRNA/intron lariat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z31" authorId="0" shapeId="0" xr:uid="{F2B8A390-65D6-4744-BF47-067603D34558}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Magnus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>mRNA/intron lariat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Magnus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>mRNA/intron lariat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="578">
   <si>
     <t>PRP8</t>
   </si>
@@ -1005,9 +1137,6 @@
     <t>violetBlue</t>
   </si>
   <si>
-    <t>SART1, hSART-1</t>
-  </si>
-  <si>
     <t>5B</t>
   </si>
   <si>
@@ -1629,9 +1758,6 @@
     <t>FAM32A, OTAG12, CGI-144</t>
   </si>
   <si>
-    <t>SNW1, SKIIP, SKIP</t>
-  </si>
-  <si>
     <t>SKIP</t>
   </si>
   <si>
@@ -1665,9 +1791,6 @@
     <t>GFA1/MEE5/CLO</t>
   </si>
   <si>
-    <t>Aquarius</t>
-  </si>
-  <si>
     <t>EMB2765</t>
   </si>
   <si>
@@ -1749,14 +1872,262 @@
     <t>Pre-mRNA-splicing factor cdc5, cdc5, SPAC644.12</t>
   </si>
   <si>
-    <t>Cwc2 and Ecm2 are fused into hRBM22, cwf5, ecm2, SPCC550.02c</t>
+    <t>i,u</t>
+  </si>
+  <si>
+    <t>yBs_6J6G</t>
+  </si>
+  <si>
+    <t>hpB1_7ABF</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>WW domain-binding protein 11, WBP11, NPWBP, SIPP1, SNP70</t>
+  </si>
+  <si>
+    <t>WBP11</t>
+  </si>
+  <si>
+    <t>SNW1, SKIIP, SKIP, SNW domain-containing protein 1</t>
+  </si>
+  <si>
+    <t>Microfibrillar-associated protein 1</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>TCERG1, CA150, TAF2S, Transcription elongation regulator 1</t>
+  </si>
+  <si>
+    <t>TCERG1</t>
+  </si>
+  <si>
+    <t>Z and resi 50-58</t>
+  </si>
+  <si>
+    <t>Z and resi 59-78</t>
+  </si>
+  <si>
+    <t>hpB2_7AAV</t>
+  </si>
+  <si>
+    <t>Cwc2 and Ecm2 are fused into hRBM22, cwf5, ecm2, SPCC550.02c, RBM22, ZC3H16, 199G4</t>
+  </si>
+  <si>
+    <t>Ubiquitin-like protein 5</t>
+  </si>
+  <si>
+    <t>hpB2_7ABH</t>
+  </si>
+  <si>
+    <t>SF3A2, SAP62</t>
+  </si>
+  <si>
+    <t>SF3A3, SAP61</t>
+  </si>
+  <si>
+    <t>SF3B1, SAP155</t>
+  </si>
+  <si>
+    <t>SF3B2, SAP145</t>
+  </si>
+  <si>
+    <t>SF3B3, KIAA0017, SAP130</t>
+  </si>
+  <si>
+    <t>SF3B4, SAP49</t>
+  </si>
+  <si>
+    <t>SF3B5, SF3B10</t>
+  </si>
+  <si>
+    <t>SF3B6, SAP14, SF3B14, SF3B14A, CGI-110, HSPC175, HT006</t>
+  </si>
+  <si>
+    <t>SRRM1</t>
+  </si>
+  <si>
+    <t>SRRM1, SRM160, Serine/arginine repetitive matrix protein 1</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>KIN, BTCD, KIN17</t>
+  </si>
+  <si>
+    <t>SART1, hSART-1,Q12420</t>
+  </si>
+  <si>
+    <t>YGR091W,P49704</t>
+  </si>
+  <si>
+    <t>P19735</t>
+  </si>
+  <si>
+    <t>P39990,13 kDa ribonucleoprotein-associated protein</t>
+  </si>
+  <si>
+    <t>Q12368,23 kDa U4/U6.U5 small nuclear ribonucleoprotein component</t>
+  </si>
+  <si>
+    <t>Pre-mRNA-splicing factor 38,Q00723</t>
+  </si>
+  <si>
+    <t>P38282</t>
+  </si>
+  <si>
+    <t>P49955</t>
+  </si>
+  <si>
+    <t>Q04693</t>
+  </si>
+  <si>
+    <t>Q02554</t>
+  </si>
+  <si>
+    <t>Q99181</t>
+  </si>
+  <si>
+    <t>Q06835</t>
+  </si>
+  <si>
+    <t>P19736</t>
+  </si>
+  <si>
+    <t>Q07350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P32524 </t>
+  </si>
+  <si>
+    <t>Q08963,U2 small nuclear ribonucleoprotein A'</t>
+  </si>
+  <si>
+    <t>P40567,U2 small nuclear ribonucleoprotein B''</t>
+  </si>
+  <si>
+    <t>P0C074,RDS3 complex subunit 10</t>
+  </si>
+  <si>
+    <t>U6 snRNA-associated Sm-like protein LSm2</t>
+  </si>
+  <si>
+    <t>P40018,Small nuclear ribonucleoprotein-associated protein B</t>
+  </si>
+  <si>
+    <t>b, k, s</t>
+  </si>
+  <si>
+    <t>d, n, v</t>
+  </si>
+  <si>
+    <t>P43321,mall nuclear ribonucleoprotein Sm D3</t>
+  </si>
+  <si>
+    <t>Q12330,Small nuclear ribonucleoprotein E</t>
+  </si>
+  <si>
+    <t>e, p, w</t>
+  </si>
+  <si>
+    <t>f, q, x</t>
+  </si>
+  <si>
+    <t>P54999,Small nuclear ribonucleoprotein F,Sm-F,SMF</t>
+  </si>
+  <si>
+    <t>SmG,P40204,Small nuclear ribonucleoprotein G</t>
+  </si>
+  <si>
+    <t>g, r, y</t>
+  </si>
+  <si>
+    <t>Sm-D1,D1,Q02260</t>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF337AB7"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF337AB7"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>i, m, u</t>
+  </si>
+  <si>
+    <t>Q06217,Small nuclear ribonucleoprotein Sm D2,Sm-D2</t>
+  </si>
+  <si>
+    <t>3,7,8,a,j,o,z</t>
+  </si>
+  <si>
+    <t>yB_5NRL</t>
+  </si>
+  <si>
+    <t>hpCs-II_7W5A</t>
+  </si>
+  <si>
+    <t>hpCs_7W5B</t>
+  </si>
+  <si>
+    <t>hpCs-I_7W59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUD31, EDG2</t>
+  </si>
+  <si>
+    <t>Aquarius, AQR, KIAA0560</t>
+  </si>
+  <si>
+    <t>Cactin</t>
+  </si>
+  <si>
+    <t>CACTIN, C19orf29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1853,6 +2224,34 @@
       <color theme="1"/>
       <name val="MinionPro"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF337AB7"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1892,7 +2291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1900,12 +2299,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2012,6 +2450,75 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2327,60 +2834,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM178"/>
+  <dimension ref="A1:AU183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="12.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="26" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="21" customWidth="1"/>
-    <col min="22" max="22" width="17.5" style="46" customWidth="1"/>
-    <col min="23" max="34" width="10.83203125" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="59" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" style="47" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="47" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" style="47" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="69" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="12.5" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="26" width="14.83203125" style="86" customWidth="1"/>
+    <col min="27" max="27" width="12.5" style="26" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="21" customWidth="1"/>
+    <col min="30" max="30" width="17.5" style="46" customWidth="1"/>
+    <col min="31" max="42" width="10.83203125" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:47">
       <c r="A1" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>254</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>90</v>
@@ -2392,97 +2905,121 @@
         <v>252</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="N1" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q1" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>570</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="V1" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="X1" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y1" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z1" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="V1" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="AD1" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AP1" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT1" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AU1" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2490,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>47</v>
@@ -2516,56 +3053,78 @@
       <c r="M2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="T2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="W2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="X2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="Y2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="Z2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AA2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AC2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AD2" s="46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2573,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>5</v>
@@ -2582,40 +3141,53 @@
         <v>3</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="AD3" t="s">
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AL3" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AP3" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AQ3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:47">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>60</v>
@@ -2626,42 +3198,62 @@
       <c r="K4" s="20"/>
       <c r="L4" s="10"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="O4" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="X4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AL4" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AP4" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AQ4" t="s">
         <v>21</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AT4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:47">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2677,37 +3269,47 @@
       <c r="K5" s="20"/>
       <c r="L5" s="10"/>
       <c r="M5" s="20"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="V5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="W5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AL5" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AP5" t="s">
         <v>14</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AQ5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:47">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2723,37 +3325,47 @@
       <c r="K6" s="20"/>
       <c r="L6" s="10"/>
       <c r="M6" s="20"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="11" t="s">
+      <c r="N6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="V6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="W6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AL6" t="s">
         <v>25</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AP6" t="s">
         <v>12</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AQ6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="33" customFormat="1">
+    <row r="7" spans="1:47" s="33" customFormat="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2761,10 +3373,10 @@
         <v>34</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>34</v>
@@ -2779,80 +3391,99 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31" t="s">
+      <c r="N7" s="54" t="s">
         <v>25</v>
       </c>
+      <c r="O7" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="P7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="72"/>
+      <c r="T7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="V7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="W7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="X7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="28" t="s">
+      <c r="Y7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="28" t="s">
+      <c r="Z7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="46" t="s">
+      <c r="AA7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="W7" s="33" t="s">
+      <c r="AE7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="33" t="s">
+      <c r="AF7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Y7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="33" t="s">
+      <c r="AG7" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AH7" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AI7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AJ7" s="40" t="s">
+      <c r="AL7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AK7" s="40" t="s">
+      <c r="AS7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL7" s="47" t="s">
+      <c r="AT7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AU7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:47">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>50</v>
@@ -2863,38 +3494,46 @@
       <c r="K8" s="20"/>
       <c r="L8" s="10"/>
       <c r="M8" s="20"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11" t="s">
+      <c r="N8" s="53"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="22" t="s">
+      <c r="W8" s="13"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="AD8" t="s">
+      <c r="AC8" s="1"/>
+      <c r="AL8" t="s">
         <v>6</v>
       </c>
-      <c r="AH8">
+      <c r="AP8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18">
+    <row r="9" spans="1:47" ht="18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>57</v>
@@ -2905,54 +3544,72 @@
       <c r="K9" s="20"/>
       <c r="L9" s="10"/>
       <c r="M9" s="20"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12" t="s">
+      <c r="N9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="O9" s="62"/>
+      <c r="P9" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="W9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="X9" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="46" t="s">
+      <c r="AD9" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AF9" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AG9" t="s">
         <v>22</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AK9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AL9" t="s">
         <v>20</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AP9" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AQ9" t="s">
         <v>22</v>
       </c>
-      <c r="AL9" s="4" t="s">
+      <c r="AT9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:47">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2968,41 +3625,51 @@
       <c r="K10" s="20"/>
       <c r="L10" s="10"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12" t="s">
+      <c r="N10" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="W10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AL10" t="s">
         <v>24</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AP10" t="s">
         <v>27</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AQ10" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="40"/>
-    </row>
-    <row r="11" spans="1:39" ht="18">
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="40"/>
+    </row>
+    <row r="11" spans="1:47" ht="18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3010,7 +3677,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>49</v>
@@ -3021,45 +3688,61 @@
       <c r="K11" s="20"/>
       <c r="L11" s="10"/>
       <c r="M11" s="20"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12" t="s">
+      <c r="N11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="W11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="X11" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AL11" t="s">
         <v>10</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AP11" t="s">
         <v>28</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AQ11" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="47" t="s">
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AM11" s="19" t="s">
+      <c r="AU11" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="4" customFormat="1" ht="18">
+    <row r="12" spans="1:47" s="4" customFormat="1" ht="18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3079,39 +3762,47 @@
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13" t="s">
+      <c r="N12" s="53"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="V12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="15" t="s">
+      <c r="W12" s="13"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="46"/>
-      <c r="Y12" s="4" t="s">
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="46"/>
+      <c r="AG12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" s="34" t="s">
+      <c r="AH12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AL12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AH12" s="46" t="s">
+      <c r="AP12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AI12" s="46"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AM12"/>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AQ12" s="46"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AU12"/>
+    </row>
+    <row r="13" spans="1:47">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3127,31 +3818,44 @@
       <c r="K13" s="20"/>
       <c r="L13" s="10"/>
       <c r="M13" s="20"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="11" t="s">
+      <c r="N13" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="AD13" t="s">
+      <c r="W13" s="13"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AL13" t="s">
         <v>9</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AP13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="18">
+    <row r="14" spans="1:47" ht="18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>51</v>
@@ -3162,36 +3866,51 @@
       <c r="K14" s="20"/>
       <c r="L14" s="10"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="11" t="s">
+      <c r="T14" s="12"/>
+      <c r="U14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="19" t="s">
+      <c r="V14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="22" t="s">
+      <c r="W14" s="13"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AM14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:47">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>51</v>
@@ -3202,34 +3921,46 @@
       <c r="K15" s="20"/>
       <c r="L15" s="10"/>
       <c r="M15" s="20"/>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="11" t="s">
+      <c r="T15" s="12"/>
+      <c r="U15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="22" t="s">
+      <c r="W15" s="13"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AL15" t="s">
         <v>31</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AM15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:47">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3237,10 +3968,10 @@
         <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>56</v>
@@ -3253,54 +3984,64 @@
       <c r="K16" s="20"/>
       <c r="L16" s="10"/>
       <c r="M16" s="20"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12" t="s">
+      <c r="N16" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="W16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="46" t="s">
+      <c r="AD16" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AL16" t="s">
         <v>13</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AP16" t="s">
         <v>24</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AQ16" t="s">
         <v>24</v>
       </c>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="40"/>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="40"/>
+    </row>
+    <row r="17" spans="1:47">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>53</v>
@@ -3311,33 +4052,41 @@
       <c r="K17" s="20"/>
       <c r="L17" s="10"/>
       <c r="M17" s="20"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="Y17" t="s">
+      <c r="N17" s="53"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AG17" t="s">
         <v>32</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AH17" t="s">
         <v>188</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AL17" t="s">
         <v>44</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AP17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="4" customFormat="1" ht="18">
+    <row r="18" spans="1:47" s="4" customFormat="1" ht="18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>92</v>
@@ -3354,49 +4103,57 @@
       <c r="K18" s="20"/>
       <c r="L18" s="10"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14" t="s">
+      <c r="N18" s="53"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13" t="s">
+      <c r="U18" s="13"/>
+      <c r="V18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="W18" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="AB18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U18" s="15" t="s">
+      <c r="AC18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="46"/>
-      <c r="AH18" s="4" t="s">
+      <c r="AD18" s="46"/>
+      <c r="AP18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AI18" s="4" t="s">
+      <c r="AQ18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AM18"/>
-    </row>
-    <row r="19" spans="1:39" ht="18">
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AU18"/>
+    </row>
+    <row r="19" spans="1:47" ht="18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>65</v>
@@ -3407,41 +4164,49 @@
       <c r="K19" s="20"/>
       <c r="L19" s="10"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12" t="s">
+      <c r="N19" s="53"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="24" t="s">
+      <c r="U19" s="11"/>
+      <c r="V19" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="W19" s="13"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AD19" s="19" t="s">
+      <c r="AL19" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="AH19" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>375</v>
-      </c>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="40" t="s">
+      <c r="AP19" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="18">
+    <row r="20" spans="1:47" ht="18">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3449,10 +4214,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>55</v>
@@ -3463,55 +4228,75 @@
       <c r="K20" s="20"/>
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12" t="s">
+      <c r="N20" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="O20" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="W20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S20" s="22" t="s">
+      <c r="X20" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V20" s="46" t="s">
+      <c r="AD20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AL20" t="s">
         <v>12</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AP20" t="s">
         <v>26</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AQ20" t="s">
         <v>26</v>
       </c>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="47" t="s">
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AM20" s="40" t="s">
+      <c r="AU20" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:47">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>58</v>
@@ -3522,33 +4307,43 @@
       <c r="K21" s="20"/>
       <c r="L21" s="10"/>
       <c r="M21" s="20"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12" t="s">
+      <c r="N21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="W21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AL21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:47">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3564,33 +4359,43 @@
       <c r="K22" s="20"/>
       <c r="L22" s="10"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="12" t="s">
+      <c r="N22" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11" t="s">
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="11"/>
+      <c r="V22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="13"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AL22" t="s">
         <v>46</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AP22" t="s">
         <v>13</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AQ22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:47">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3598,13 +4403,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>3</v>
@@ -3613,53 +4418,65 @@
         <v>5</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K23" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="S23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="T23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="U23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S23" s="22" t="s">
+      <c r="V23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="W23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V23" s="46" t="s">
+      <c r="AB23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AL23" t="s">
         <v>5</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AP23" t="s">
         <v>5</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AQ23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:47" ht="18">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3675,35 +4492,51 @@
       <c r="K24" s="20"/>
       <c r="L24" s="10"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12" t="s">
+      <c r="N24" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11" t="s">
+      <c r="U24" s="11"/>
+      <c r="V24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="W24" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="1" t="s">
+      <c r="X24" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z24" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AP24" t="s">
         <v>20</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AQ24" t="s">
         <v>20</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AU24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:47">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3711,7 +4544,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>66</v>
@@ -3722,47 +4555,63 @@
       <c r="K25" s="20"/>
       <c r="L25" s="10"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12" t="s">
+      <c r="N25" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="V25" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="W25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="22" t="s">
+      <c r="X25" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y25" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z25" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA25" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="AB25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="AC25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AL25" t="s">
         <v>26</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AP25" t="s">
         <v>11</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AQ25" t="s">
         <v>11</v>
       </c>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4" t="s">
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AM25" s="4" t="s">
+      <c r="AU25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="40" customFormat="1">
+    <row r="26" spans="1:47" s="40" customFormat="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3773,7 +4622,7 @@
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>62</v>
@@ -3790,74 +4639,96 @@
       <c r="M26" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="37">
+        <v>2</v>
+      </c>
+      <c r="R26" s="68">
+        <v>2</v>
+      </c>
+      <c r="S26" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="38">
+      <c r="T26" s="38">
         <v>2</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="U26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="Q26" s="38" t="s">
+      <c r="V26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R26" s="38">
+      <c r="W26" s="38">
         <v>2</v>
       </c>
-      <c r="S26" s="39">
+      <c r="X26" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="39">
         <v>2</v>
       </c>
-      <c r="T26" s="36" t="s">
+      <c r="AB26" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="36" t="s">
+      <c r="AC26" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V26" s="50" t="s">
+      <c r="AD26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="40" t="s">
+      <c r="AE26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="X26" s="40">
+      <c r="AF26" s="40">
         <v>2</v>
       </c>
-      <c r="Y26" s="40" t="s">
+      <c r="AG26" s="40" t="s">
         <v>10</v>
-      </c>
-      <c r="Z26" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="40">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="40">
-        <v>2</v>
-      </c>
-      <c r="AD26" s="40" t="s">
-        <v>32</v>
       </c>
       <c r="AH26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AI26" s="40" t="s">
+      <c r="AI26" s="40">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="40">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AJ26">
+      <c r="AQ26" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR26">
         <v>2</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AS26" t="s">
         <v>10</v>
       </c>
-      <c r="AL26" s="47" t="s">
+      <c r="AT26" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AM26">
+      <c r="AU26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="40" customFormat="1">
+    <row r="27" spans="1:47" s="40" customFormat="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3889,74 +4760,96 @@
       <c r="M27" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="38" t="s">
+      <c r="N27" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="37">
+        <v>5</v>
+      </c>
+      <c r="P27" s="37">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="68">
+        <v>5</v>
+      </c>
+      <c r="S27" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="38">
+      <c r="T27" s="38">
         <v>5</v>
       </c>
-      <c r="P27" s="38" t="s">
+      <c r="U27" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="38" t="s">
+      <c r="V27" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="38">
+      <c r="W27" s="38">
         <v>5</v>
       </c>
-      <c r="S27" s="39">
+      <c r="X27" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="39">
         <v>5</v>
       </c>
-      <c r="T27" s="36" t="s">
+      <c r="AB27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="36" t="s">
+      <c r="AC27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V27" s="50" t="s">
+      <c r="AD27" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="W27" s="40" t="s">
+      <c r="AE27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="X27" s="40">
+      <c r="AF27" s="40">
         <v>5</v>
       </c>
-      <c r="Y27" s="40" t="s">
+      <c r="AG27" s="40" t="s">
         <v>3</v>
-      </c>
-      <c r="Z27" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA27" s="40">
-        <v>5</v>
-      </c>
-      <c r="AC27" s="40">
-        <v>5</v>
-      </c>
-      <c r="AD27" s="40" t="s">
-        <v>27</v>
       </c>
       <c r="AH27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AI27" s="40" t="s">
+      <c r="AI27" s="40">
+        <v>5</v>
+      </c>
+      <c r="AK27" s="40">
+        <v>5</v>
+      </c>
+      <c r="AL27" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AJ27">
+      <c r="AQ27" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR27">
         <v>5</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AS27" t="s">
         <v>3</v>
       </c>
-      <c r="AL27" s="47" t="s">
+      <c r="AT27" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AM27">
+      <c r="AU27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="40" customFormat="1">
+    <row r="28" spans="1:47" s="40" customFormat="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3988,74 +4881,96 @@
       <c r="M28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="37">
+        <v>6</v>
+      </c>
+      <c r="P28" s="37">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="68">
+        <v>6</v>
+      </c>
+      <c r="S28" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="38">
+      <c r="T28" s="38">
         <v>6</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="U28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="38" t="s">
+      <c r="V28" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="38">
+      <c r="W28" s="38">
         <v>6</v>
       </c>
-      <c r="S28" s="39">
+      <c r="X28" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z28" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA28" s="39">
         <v>6</v>
       </c>
-      <c r="T28" s="36" t="s">
+      <c r="AB28" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="U28" s="36" t="s">
+      <c r="AC28" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="V28" s="50" t="s">
+      <c r="AD28" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="40" t="s">
+      <c r="AE28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="40">
+      <c r="AF28" s="40">
         <v>6</v>
       </c>
-      <c r="Y28" s="40" t="s">
+      <c r="AG28" s="40" t="s">
         <v>8</v>
-      </c>
-      <c r="Z28" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA28" s="40">
-        <v>6</v>
-      </c>
-      <c r="AC28" s="40">
-        <v>6</v>
-      </c>
-      <c r="AD28" s="40" t="s">
-        <v>28</v>
       </c>
       <c r="AH28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AI28" s="40" t="s">
+      <c r="AI28" s="40">
+        <v>6</v>
+      </c>
+      <c r="AK28" s="40">
+        <v>6</v>
+      </c>
+      <c r="AL28" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AQ28" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR28" s="4">
         <v>6</v>
       </c>
-      <c r="AK28" s="4" t="s">
+      <c r="AS28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AL28" s="47" t="s">
+      <c r="AT28" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AM28">
+      <c r="AU28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="40" customFormat="1">
+    <row r="29" spans="1:47" s="40" customFormat="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4067,7 +4982,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="36" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -4075,31 +4990,49 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38" t="s">
+      <c r="N29" s="55"/>
+      <c r="O29" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="P29" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="38" t="s">
+      <c r="W29" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="S29" s="39"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="50"/>
-      <c r="AC29" s="40" t="s">
+      <c r="X29" s="84">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="84">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="84">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="50"/>
+      <c r="AK29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AD29" s="40" t="s">
+      <c r="AL29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29"/>
-    </row>
-    <row r="30" spans="1:39" s="40" customFormat="1">
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29"/>
+    </row>
+    <row r="30" spans="1:47" s="40" customFormat="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4131,23 +5064,33 @@
       <c r="M30" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="55"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="68">
+        <v>4</v>
+      </c>
+      <c r="S30" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="50"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30"/>
-    </row>
-    <row r="31" spans="1:39" s="40" customFormat="1" ht="18">
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="50"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30"/>
+    </row>
+    <row r="31" spans="1:47" s="40" customFormat="1" ht="18">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4161,7 +5104,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
@@ -4175,80 +5118,104 @@
       <c r="M31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="38" t="s">
+      <c r="N31" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="P31" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="O31" s="38" t="s">
+      <c r="T31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="38" t="s">
+      <c r="U31" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" s="38" t="s">
+      <c r="V31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="38" t="s">
+      <c r="W31" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="S31" s="39" t="s">
+      <c r="X31" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y31" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z31" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA31" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="T31" s="36" t="s">
+      <c r="AB31" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="U31" s="36" t="s">
+      <c r="AC31" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="V31" s="51" t="s">
+      <c r="AD31" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="W31" s="36" t="s">
+      <c r="AE31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="X31" s="36" t="s">
+      <c r="AF31" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Y31" s="36" t="s">
+      <c r="AG31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Z31" s="36" t="s">
+      <c r="AH31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AA31" s="36" t="s">
+      <c r="AI31" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AC31" s="36" t="s">
+      <c r="AK31" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AD31" s="36" t="s">
+      <c r="AL31" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AF31" s="40" t="s">
+      <c r="AN31" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="AG31" s="40" t="s">
+      <c r="AO31" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="AH31" s="40" t="s">
+      <c r="AP31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AI31" s="40" t="s">
+      <c r="AQ31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AJ31" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="AK31" s="40" t="s">
+      <c r="AR31" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AL31" s="47" t="s">
+      <c r="AT31" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AM31" s="40" t="s">
+      <c r="AU31" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="40" customFormat="1">
+    <row r="32" spans="1:47" s="40" customFormat="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4260,7 +5227,7 @@
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="36" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
@@ -4268,55 +5235,63 @@
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="N32" s="55"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="38" t="s">
+      <c r="U32" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q32" s="38" t="s">
+      <c r="V32" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="38" t="s">
+      <c r="W32" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="S32" s="39" t="s">
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="36" t="s">
+      <c r="AB32" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="U32" s="36"/>
-      <c r="V32" s="50"/>
-      <c r="AH32" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="AI32" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" t="s">
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="50"/>
+      <c r="AP32" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ32" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="40" customFormat="1">
+    <row r="33" spans="1:47" s="40" customFormat="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="36" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
@@ -4324,24 +5299,29 @@
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="50"/>
-      <c r="AC33" s="40">
-        <v>3</v>
-      </c>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33"/>
-    </row>
-    <row r="34" spans="1:39" s="40" customFormat="1">
+      <c r="N33" s="55"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="50"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33"/>
+    </row>
+    <row r="34" spans="1:47" s="40" customFormat="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4352,10 +5332,10 @@
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -4365,39 +5345,50 @@
       </c>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="50"/>
-      <c r="AF34" s="40" t="s">
+      <c r="N34" s="55"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="50"/>
+      <c r="AK34" s="40">
+        <v>3</v>
+      </c>
+      <c r="AN34" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AG34" s="40" t="s">
+      <c r="AO34" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34"/>
-    </row>
-    <row r="35" spans="1:39" s="40" customFormat="1">
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34"/>
+    </row>
+    <row r="35" spans="1:47" s="40" customFormat="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
@@ -4405,25 +5396,33 @@
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="50"/>
-      <c r="AH35" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35"/>
-    </row>
-    <row r="36" spans="1:39">
+        <v>353</v>
+      </c>
+      <c r="N35" s="55"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="68"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="50"/>
+      <c r="AP35" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35"/>
+    </row>
+    <row r="36" spans="1:47">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4431,42 +5430,55 @@
         <v>131</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="53"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O36" s="12"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="T36" s="12"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="1:47">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="G37" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>12</v>
@@ -4475,35 +5487,48 @@
         <v>8</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="53"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="S37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="T37" s="12"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="1:47">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="G38" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>9</v>
@@ -4512,27 +5537,37 @@
         <v>12</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="53"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="S38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="12"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="T38" s="12"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+    </row>
+    <row r="39" spans="1:47">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4540,7 +5575,7 @@
         <v>134</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>13</v>
@@ -4549,27 +5584,37 @@
         <v>9</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="53"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="T39" s="12"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="81"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+    </row>
+    <row r="40" spans="1:47">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4588,24 +5633,37 @@
       <c r="M40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="N40" s="53"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="S40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O40" s="12"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="T40" s="12"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+    </row>
+    <row r="41" spans="1:47">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C41" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>260</v>
       </c>
@@ -4616,25 +5674,35 @@
         <v>13</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="10"/>
       <c r="M41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="11" t="s">
+      <c r="N41" s="53"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:39" ht="18">
+      <c r="T41" s="12"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="81"/>
+      <c r="Y41" s="81"/>
+      <c r="Z41" s="81"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+    </row>
+    <row r="42" spans="1:47" ht="18">
       <c r="A42" s="1">
         <v>48</v>
       </c>
@@ -4642,7 +5710,7 @@
         <v>139</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>262</v>
+        <v>536</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
@@ -4664,18 +5732,28 @@
       <c r="M42" s="43">
         <v>9</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="56"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O42" s="12"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="T42" s="12"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="81"/>
+      <c r="Z42" s="81"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+    </row>
+    <row r="43" spans="1:47">
       <c r="A43" s="1">
         <v>49</v>
       </c>
@@ -4691,18 +5769,26 @@
       <c r="K43" s="20"/>
       <c r="L43" s="10"/>
       <c r="M43" s="20"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="1" t="s">
+      <c r="N43" s="53"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="81"/>
+      <c r="Y43" s="81"/>
+      <c r="Z43" s="81"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:39">
+      <c r="AC43" s="1"/>
+    </row>
+    <row r="44" spans="1:47">
       <c r="A44" s="1">
         <v>50</v>
       </c>
@@ -4718,20 +5804,28 @@
       <c r="K44" s="20"/>
       <c r="L44" s="10"/>
       <c r="M44" s="20"/>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="53"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="T44" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:39">
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+    </row>
+    <row r="45" spans="1:47">
       <c r="A45" s="1">
         <v>51</v>
       </c>
@@ -4747,23 +5841,34 @@
       <c r="K45" s="20"/>
       <c r="L45" s="10"/>
       <c r="M45" s="20"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12" t="s">
+      <c r="N45" s="53"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:39">
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+    </row>
+    <row r="46" spans="1:47">
       <c r="A46" s="1">
         <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>51</v>
@@ -4774,20 +5879,30 @@
       <c r="K46" s="20"/>
       <c r="L46" s="10"/>
       <c r="M46" s="20"/>
-      <c r="N46" s="11">
+      <c r="N46" s="53"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" s="11">
         <v>2</v>
       </c>
-      <c r="O46" s="12" t="s">
+      <c r="T46" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:39">
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+    </row>
+    <row r="47" spans="1:47">
       <c r="A47" s="1">
         <v>53</v>
       </c>
@@ -4803,18 +5918,26 @@
       <c r="K47" s="20"/>
       <c r="L47" s="10"/>
       <c r="M47" s="20"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="12" t="s">
+      <c r="N47" s="53"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:39">
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="81"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+    </row>
+    <row r="48" spans="1:47">
       <c r="A48" s="1">
         <v>54</v>
       </c>
@@ -4830,23 +5953,34 @@
       <c r="K48" s="20"/>
       <c r="L48" s="10"/>
       <c r="M48" s="20"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="12" t="s">
+      <c r="N48" s="53"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:33">
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49" s="1">
         <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>53</v>
@@ -4857,25 +5991,38 @@
       <c r="K49" s="20"/>
       <c r="L49" s="10"/>
       <c r="M49" s="20"/>
-      <c r="N49" s="11">
+      <c r="N49" s="53"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" s="11">
         <v>1</v>
       </c>
-      <c r="O49" s="12" t="s">
+      <c r="T49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:33">
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="81"/>
+      <c r="Y49" s="81"/>
+      <c r="Z49" s="81"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50" s="1">
         <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>89</v>
@@ -4886,20 +6033,30 @@
       <c r="K50" s="20"/>
       <c r="L50" s="10"/>
       <c r="M50" s="20"/>
-      <c r="N50" s="11">
+      <c r="N50" s="53"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="S50" s="11">
         <v>4</v>
       </c>
-      <c r="O50" s="12" t="s">
+      <c r="T50" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:33">
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="81"/>
+      <c r="Y50" s="81"/>
+      <c r="Z50" s="81"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51" s="1">
         <v>57</v>
       </c>
@@ -4915,25 +6072,36 @@
       <c r="K51" s="20"/>
       <c r="L51" s="10"/>
       <c r="M51" s="20"/>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="53"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O51" s="12" t="s">
+      <c r="T51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:33">
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="81"/>
+      <c r="Y51" s="81"/>
+      <c r="Z51" s="81"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52" s="1">
         <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>51</v>
@@ -4944,20 +6112,30 @@
       <c r="K52" s="20"/>
       <c r="L52" s="10"/>
       <c r="M52" s="20"/>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="53"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="S52" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="O52" s="12" t="s">
+      <c r="T52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:33">
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="81"/>
+      <c r="Y52" s="81"/>
+      <c r="Z52" s="81"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" s="1">
         <v>59</v>
       </c>
@@ -4973,23 +6151,34 @@
       <c r="K53" s="20"/>
       <c r="L53" s="10"/>
       <c r="M53" s="20"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="12" t="s">
+      <c r="N53" s="53"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="1:33">
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="81"/>
+      <c r="Y53" s="81"/>
+      <c r="Z53" s="81"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54" s="1">
         <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>51</v>
@@ -5000,25 +6189,38 @@
       <c r="K54" s="20"/>
       <c r="L54" s="10"/>
       <c r="M54" s="20"/>
-      <c r="N54" s="11">
+      <c r="N54" s="53"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="11">
         <v>5</v>
       </c>
-      <c r="O54" s="12" t="s">
+      <c r="T54" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:33">
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="81"/>
+      <c r="Y54" s="81"/>
+      <c r="Z54" s="81"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55" s="1">
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>53</v>
@@ -5029,20 +6231,30 @@
       <c r="K55" s="20"/>
       <c r="L55" s="10"/>
       <c r="M55" s="20"/>
-      <c r="N55" s="11">
+      <c r="N55" s="53"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" s="11">
         <v>3</v>
       </c>
-      <c r="O55" s="12" t="s">
+      <c r="T55" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:33">
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="81"/>
+      <c r="Y55" s="81"/>
+      <c r="Z55" s="81"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+    </row>
+    <row r="56" spans="1:41">
       <c r="A56" s="1">
         <v>62</v>
       </c>
@@ -5058,25 +6270,36 @@
       <c r="K56" s="20"/>
       <c r="L56" s="10"/>
       <c r="M56" s="20"/>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="53"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O56" s="12" t="s">
+      <c r="T56" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="1:33">
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="81"/>
+      <c r="Y56" s="81"/>
+      <c r="Z56" s="81"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+    </row>
+    <row r="57" spans="1:41">
       <c r="A57" s="1">
         <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>51</v>
@@ -5087,28 +6310,38 @@
       <c r="K57" s="20"/>
       <c r="L57" s="10"/>
       <c r="M57" s="20"/>
-      <c r="N57" s="11">
+      <c r="N57" s="53"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="11">
         <v>6</v>
       </c>
-      <c r="O57" s="12" t="s">
+      <c r="T57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="AE57" t="s">
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="81"/>
+      <c r="Y57" s="81"/>
+      <c r="Z57" s="81"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AM57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:41">
       <c r="A58" s="1">
         <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>155</v>
@@ -5119,29 +6352,37 @@
       <c r="K58" s="44"/>
       <c r="L58" s="17"/>
       <c r="M58" s="44"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="1" t="s">
+      <c r="N58" s="57"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="81"/>
+      <c r="Y58" s="81"/>
+      <c r="Z58" s="81"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U58" s="1"/>
-      <c r="W58" s="27" t="s">
+      <c r="AC58" s="1"/>
+      <c r="AE58" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:41">
       <c r="A59" s="1">
         <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>155</v>
@@ -5152,18 +6393,26 @@
       <c r="K59" s="44"/>
       <c r="L59" s="17"/>
       <c r="M59" s="44"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="1" t="s">
+      <c r="N59" s="57"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="81"/>
+      <c r="Y59" s="81"/>
+      <c r="Z59" s="81"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="1:33">
+      <c r="AC59" s="1"/>
+    </row>
+    <row r="60" spans="1:41">
       <c r="A60" s="1">
         <v>66</v>
       </c>
@@ -5179,18 +6428,26 @@
       <c r="K60" s="44"/>
       <c r="L60" s="17"/>
       <c r="M60" s="44"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="1" t="s">
+      <c r="N60" s="57"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="81"/>
+      <c r="Y60" s="81"/>
+      <c r="Z60" s="81"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="AC60" s="1"/>
+    </row>
+    <row r="61" spans="1:41">
       <c r="A61" s="1">
         <v>67</v>
       </c>
@@ -5206,23 +6463,34 @@
       <c r="K61" s="44"/>
       <c r="L61" s="17"/>
       <c r="M61" s="44"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="1" t="s">
+      <c r="N61" s="57"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="81"/>
+      <c r="Y61" s="81"/>
+      <c r="Z61" s="81"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="1:33" ht="18">
+      <c r="AC61" s="1"/>
+    </row>
+    <row r="62" spans="1:41" ht="18">
       <c r="A62" s="1">
         <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>155</v>
@@ -5235,47 +6503,60 @@
       <c r="K62" s="43"/>
       <c r="L62" s="19"/>
       <c r="M62" s="43"/>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="56"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="R62" s="74" t="s">
+        <v>556</v>
+      </c>
+      <c r="S62" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O62" s="12"/>
-      <c r="P62" s="11" t="s">
+      <c r="T62" s="12"/>
+      <c r="U62" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Q62" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="R62" s="13" t="s">
+      <c r="V62" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="W62" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="S62" s="24" t="s">
+      <c r="X62" s="81"/>
+      <c r="Y62" s="81"/>
+      <c r="Z62" s="81"/>
+      <c r="AA62" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="AB62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U62" s="19" t="s">
+      <c r="AC62" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AL62" t="s">
         <v>119</v>
       </c>
-      <c r="AE62" s="19" t="s">
+      <c r="AM62" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="AF62" t="s">
+      <c r="AN62" t="s">
         <v>13</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AO62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="18">
+    <row r="63" spans="1:41" ht="18">
       <c r="A63" s="1">
         <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>155</v>
@@ -5288,47 +6569,62 @@
       <c r="K63" s="43"/>
       <c r="L63" s="19"/>
       <c r="M63" s="43"/>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="56" t="s">
+        <v>507</v>
+      </c>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="74" t="s">
+        <v>560</v>
+      </c>
+      <c r="S63" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O63" s="12"/>
-      <c r="P63" s="11" t="s">
+      <c r="T63" s="12"/>
+      <c r="U63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="V63" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="R63" s="13" t="s">
+      <c r="W63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="S63" s="24" t="s">
+      <c r="X63" s="81"/>
+      <c r="Y63" s="81"/>
+      <c r="Z63" s="81"/>
+      <c r="AA63" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="AB63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="U63" s="19" t="s">
+      <c r="AC63" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="AD63" s="19" t="s">
+      <c r="AL63" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="AE63" s="19" t="s">
+      <c r="AM63" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="AF63" t="s">
+      <c r="AN63" t="s">
         <v>22</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AO63" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="18">
+    <row r="64" spans="1:41" ht="18">
       <c r="A64" s="1">
         <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>155</v>
@@ -5341,47 +6637,60 @@
       <c r="K64" s="43"/>
       <c r="L64" s="19"/>
       <c r="M64" s="43"/>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="56"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="74" t="s">
+        <v>561</v>
+      </c>
+      <c r="S64" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="O64" s="12"/>
-      <c r="P64" s="11" t="s">
+      <c r="T64" s="12"/>
+      <c r="U64" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="Q64" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="R64" s="13" t="s">
+      <c r="V64" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="W64" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S64" s="24" t="s">
+      <c r="X64" s="81"/>
+      <c r="Y64" s="81"/>
+      <c r="Z64" s="81"/>
+      <c r="AA64" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="AB64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U64" s="19" t="s">
+      <c r="AC64" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="AD64" s="19" t="s">
+      <c r="AL64" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="AE64" s="19" t="s">
+      <c r="AM64" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="AF64" t="s">
+      <c r="AN64" t="s">
         <v>23</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AO64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="18">
+    <row r="65" spans="1:47" ht="18">
       <c r="A65" s="1">
         <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>155</v>
@@ -5394,47 +6703,60 @@
       <c r="K65" s="43"/>
       <c r="L65" s="19"/>
       <c r="M65" s="43"/>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="56"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="S65" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="O65" s="12"/>
-      <c r="P65" s="11" t="s">
+      <c r="T65" s="12"/>
+      <c r="U65" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="Q65" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="R65" s="13" t="s">
+      <c r="V65" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="W65" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="S65" s="24" t="s">
+      <c r="X65" s="81"/>
+      <c r="Y65" s="81"/>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="AB65" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U65" s="19" t="s">
+      <c r="AC65" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AD65" s="19" t="s">
+      <c r="AL65" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="AE65" s="19" t="s">
+      <c r="AM65" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="AF65" t="s">
+      <c r="AN65" t="s">
         <v>44</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AO65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="18">
+    <row r="66" spans="1:47" ht="18">
       <c r="A66" s="1">
         <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>155</v>
@@ -5449,47 +6771,60 @@
       <c r="K66" s="43"/>
       <c r="L66" s="19"/>
       <c r="M66" s="43"/>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="56"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="74" t="s">
+        <v>557</v>
+      </c>
+      <c r="S66" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O66" s="12"/>
-      <c r="P66" s="11" t="s">
+      <c r="T66" s="12"/>
+      <c r="U66" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="Q66" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="R66" s="13" t="s">
+      <c r="V66" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="W66" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="S66" s="24" t="s">
+      <c r="X66" s="81"/>
+      <c r="Y66" s="81"/>
+      <c r="Z66" s="81"/>
+      <c r="AA66" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="AB66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U66" s="19" t="s">
+      <c r="AC66" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="AD66" s="19" t="s">
+      <c r="AL66" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="AE66" s="19" t="s">
+      <c r="AM66" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="AF66" t="s">
+      <c r="AN66" t="s">
         <v>21</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AO66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="18">
+    <row r="67" spans="1:47" ht="18">
       <c r="A67" s="1">
         <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>155</v>
@@ -5504,47 +6839,60 @@
       <c r="K67" s="43"/>
       <c r="L67" s="19"/>
       <c r="M67" s="43"/>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="56"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="S67" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="O67" s="12"/>
-      <c r="P67" s="11" t="s">
+      <c r="T67" s="12"/>
+      <c r="U67" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Q67" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="R67" s="13" t="s">
+      <c r="V67" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="W67" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="S67" s="24" t="s">
+      <c r="X67" s="81"/>
+      <c r="Y67" s="81"/>
+      <c r="Z67" s="81"/>
+      <c r="AA67" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="T67" s="18" t="s">
+      <c r="AB67" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="U67" s="19" t="s">
+      <c r="AC67" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="AD67" s="19" t="s">
+      <c r="AL67" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="AE67" s="19" t="s">
+      <c r="AM67" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="AF67" t="s">
+      <c r="AN67" t="s">
         <v>14</v>
       </c>
-      <c r="AG67" t="s">
+      <c r="AO67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="18">
+    <row r="68" spans="1:47" ht="18">
       <c r="A68" s="1">
         <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>105</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>155</v>
@@ -5559,42 +6907,52 @@
       <c r="K68" s="43"/>
       <c r="L68" s="19"/>
       <c r="M68" s="43"/>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="56"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="74" t="s">
+        <v>567</v>
+      </c>
+      <c r="S68" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="O68" s="12"/>
-      <c r="P68" s="11" t="s">
+      <c r="T68" s="12"/>
+      <c r="U68" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Q68" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="R68" s="13" t="s">
+      <c r="V68" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="W68" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="S68" s="24" t="s">
+      <c r="X68" s="81"/>
+      <c r="Y68" s="81"/>
+      <c r="Z68" s="81"/>
+      <c r="AA68" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="T68" s="18" t="s">
+      <c r="AB68" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="U68" s="19" t="s">
+      <c r="AC68" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="AD68" s="19" t="s">
+      <c r="AL68" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="AE68" s="19" t="s">
+      <c r="AM68" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AN68" t="s">
         <v>20</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AO68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:47">
       <c r="A69" s="1">
         <v>75</v>
       </c>
@@ -5610,23 +6968,31 @@
       <c r="K69" s="44"/>
       <c r="L69" s="17"/>
       <c r="M69" s="44"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="22" t="s">
+      <c r="N69" s="57"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="81"/>
+      <c r="Y69" s="81"/>
+      <c r="Z69" s="81"/>
+      <c r="AA69" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1" t="s">
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI69" t="s">
+      <c r="AQ69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:47">
       <c r="A70" s="1">
         <v>76</v>
       </c>
@@ -5642,22 +7008,30 @@
       <c r="K70" s="44"/>
       <c r="L70" s="17"/>
       <c r="M70" s="44"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="13" t="s">
+      <c r="N70" s="57"/>
+      <c r="O70" s="64"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="S70" s="22" t="s">
+      <c r="X70" s="81"/>
+      <c r="Y70" s="81"/>
+      <c r="Z70" s="81"/>
+      <c r="AA70" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1" t="s">
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:47">
       <c r="A71" s="1">
         <v>77</v>
       </c>
@@ -5673,28 +7047,42 @@
       <c r="K71" s="44"/>
       <c r="L71" s="17"/>
       <c r="M71" s="44"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="13" t="s">
+      <c r="N71" s="57"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="S71" s="22" t="s">
+      <c r="X71" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="81">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="81">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1" t="s">
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AI71" t="s">
+      <c r="AQ71" t="s">
         <v>32</v>
       </c>
-      <c r="AM71" t="s">
+      <c r="AU71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:47">
       <c r="A72" s="1">
         <v>78</v>
       </c>
@@ -5710,16 +7098,24 @@
       <c r="K72" s="44"/>
       <c r="L72" s="17"/>
       <c r="M72" s="44"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="1:39">
+      <c r="N72" s="57"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="81"/>
+      <c r="Y72" s="81"/>
+      <c r="Z72" s="81"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+    </row>
+    <row r="73" spans="1:47">
       <c r="A73" s="1">
         <v>79</v>
       </c>
@@ -5735,21 +7131,32 @@
       <c r="K73" s="44"/>
       <c r="L73" s="17"/>
       <c r="M73" s="44"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="1:39">
+      <c r="N73" s="57"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="81"/>
+      <c r="Y73" s="81"/>
+      <c r="Z73" s="81"/>
+      <c r="AA73" s="22"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+    </row>
+    <row r="74" spans="1:47">
       <c r="A74" s="1">
         <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>147</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>155</v>
@@ -5760,23 +7167,36 @@
       <c r="K74" s="44"/>
       <c r="L74" s="17"/>
       <c r="M74" s="44"/>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="57"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="S74" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="O74" s="12"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="1:39">
+      <c r="T74" s="12"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="81"/>
+      <c r="Y74" s="81"/>
+      <c r="Z74" s="81"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+    </row>
+    <row r="75" spans="1:47">
       <c r="A75" s="1">
         <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>149</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>155</v>
@@ -5787,23 +7207,36 @@
       <c r="K75" s="44"/>
       <c r="L75" s="17"/>
       <c r="M75" s="44"/>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="57"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="S75" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O75" s="12"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="1:39">
+      <c r="T75" s="12"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="81"/>
+      <c r="Y75" s="81"/>
+      <c r="Z75" s="81"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+    </row>
+    <row r="76" spans="1:47">
       <c r="A76" s="1">
         <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>155</v>
@@ -5814,23 +7247,36 @@
       <c r="K76" s="44"/>
       <c r="L76" s="17"/>
       <c r="M76" s="44"/>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="57"/>
+      <c r="O76" s="64"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="S76" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O76" s="12"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="1:39">
+      <c r="T76" s="12"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="81"/>
+      <c r="Y76" s="81"/>
+      <c r="Z76" s="81"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+    </row>
+    <row r="77" spans="1:47">
       <c r="A77" s="1">
         <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>152</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>155</v>
@@ -5841,23 +7287,36 @@
       <c r="K77" s="44"/>
       <c r="L77" s="17"/>
       <c r="M77" s="44"/>
-      <c r="N77" s="11">
+      <c r="N77" s="57"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
+      <c r="R77" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="11">
         <v>0</v>
       </c>
-      <c r="O77" s="12"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="1:39">
+      <c r="T77" s="12"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="81"/>
+      <c r="Y77" s="81"/>
+      <c r="Z77" s="81"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+    </row>
+    <row r="78" spans="1:47">
       <c r="A78" s="1">
         <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>155</v>
@@ -5868,18 +7327,28 @@
       <c r="K78" s="44"/>
       <c r="L78" s="17"/>
       <c r="M78" s="44"/>
-      <c r="N78" s="11">
+      <c r="N78" s="57"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="64"/>
+      <c r="R78" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="S78" s="11">
         <v>9</v>
       </c>
-      <c r="O78" s="12"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:39">
+      <c r="T78" s="12"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="81"/>
+      <c r="Y78" s="81"/>
+      <c r="Z78" s="81"/>
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+    </row>
+    <row r="79" spans="1:47">
       <c r="A79" s="1">
         <v>85</v>
       </c>
@@ -5897,24 +7366,34 @@
       <c r="K79" s="20"/>
       <c r="L79" s="10"/>
       <c r="M79" s="20"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="22" t="s">
+      <c r="N79" s="53"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="AD79" t="s">
+      <c r="S79" s="11"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="81"/>
+      <c r="Y79" s="81"/>
+      <c r="Z79" s="81"/>
+      <c r="AA79" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AL79" t="s">
         <v>112</v>
       </c>
-      <c r="AE79" t="s">
+      <c r="AM79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="18">
+    <row r="80" spans="1:47" ht="18">
       <c r="A80" s="1">
         <v>88</v>
       </c>
@@ -5934,14 +7413,28 @@
       <c r="K80" s="45"/>
       <c r="L80" s="7"/>
       <c r="M80" s="45"/>
-      <c r="Z80" t="s">
+      <c r="N80" s="58"/>
+      <c r="O80" s="65"/>
+      <c r="P80" s="65"/>
+      <c r="Q80" s="65"/>
+      <c r="R80" s="71"/>
+      <c r="X80" s="86">
+        <v>2</v>
+      </c>
+      <c r="Y80" s="86">
+        <v>2</v>
+      </c>
+      <c r="Z80" s="86">
+        <v>2</v>
+      </c>
+      <c r="AH80" t="s">
         <v>30</v>
       </c>
-      <c r="AM80" t="s">
+      <c r="AU80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="18">
+    <row r="81" spans="1:43" ht="18">
       <c r="A81" s="1">
         <v>89</v>
       </c>
@@ -5961,20 +7454,25 @@
       <c r="K81" s="45"/>
       <c r="L81" s="7"/>
       <c r="M81" s="45"/>
-      <c r="AE81" t="s">
+      <c r="N81" s="58"/>
+      <c r="O81" s="65"/>
+      <c r="P81" s="65"/>
+      <c r="Q81" s="65"/>
+      <c r="R81" s="71"/>
+      <c r="AM81" t="s">
         <v>1</v>
       </c>
-      <c r="AF81" t="s">
+      <c r="AN81" t="s">
         <v>5</v>
       </c>
-      <c r="AG81" t="s">
+      <c r="AO81" t="s">
         <v>5</v>
       </c>
-      <c r="AI81" t="s">
+      <c r="AQ81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="18">
+    <row r="82" spans="1:43" ht="18">
       <c r="A82" s="1">
         <v>90</v>
       </c>
@@ -5994,17 +7492,22 @@
       <c r="K82" s="45"/>
       <c r="L82" s="7"/>
       <c r="M82" s="45"/>
-      <c r="AE82" t="s">
+      <c r="N82" s="58"/>
+      <c r="O82" s="65"/>
+      <c r="P82" s="65"/>
+      <c r="Q82" s="65"/>
+      <c r="R82" s="71"/>
+      <c r="AM82" t="s">
         <v>3</v>
       </c>
-      <c r="AF82" t="s">
+      <c r="AN82" t="s">
         <v>1</v>
       </c>
-      <c r="AG82" t="s">
+      <c r="AO82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="18">
+    <row r="83" spans="1:43" ht="18">
       <c r="A83" s="1">
         <v>91</v>
       </c>
@@ -6024,17 +7527,22 @@
       <c r="K83" s="45"/>
       <c r="L83" s="7"/>
       <c r="M83" s="45"/>
-      <c r="AE83" t="s">
+      <c r="N83" s="58"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="71"/>
+      <c r="AM83" t="s">
         <v>5</v>
       </c>
-      <c r="AF83" t="s">
+      <c r="AN83" t="s">
         <v>3</v>
       </c>
-      <c r="AG83" t="s">
+      <c r="AO83" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="18">
+    <row r="84" spans="1:43" ht="18">
       <c r="A84" s="1">
         <v>92</v>
       </c>
@@ -6054,17 +7562,22 @@
       <c r="K84" s="45"/>
       <c r="L84" s="7"/>
       <c r="M84" s="45"/>
-      <c r="AE84" t="s">
+      <c r="N84" s="58"/>
+      <c r="O84" s="65"/>
+      <c r="P84" s="65"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="71"/>
+      <c r="AM84" t="s">
         <v>6</v>
       </c>
-      <c r="AF84" t="s">
+      <c r="AN84" t="s">
         <v>7</v>
       </c>
-      <c r="AG84" t="s">
+      <c r="AO84" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="18">
+    <row r="85" spans="1:43" ht="18">
       <c r="A85" s="1">
         <v>93</v>
       </c>
@@ -6084,17 +7597,22 @@
       <c r="K85" s="45"/>
       <c r="L85" s="7"/>
       <c r="M85" s="45"/>
-      <c r="AE85" t="s">
+      <c r="N85" s="58"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="71"/>
+      <c r="AM85" t="s">
         <v>7</v>
       </c>
-      <c r="AF85" t="s">
+      <c r="AN85" t="s">
         <v>6</v>
       </c>
-      <c r="AG85" t="s">
+      <c r="AO85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="18">
+    <row r="86" spans="1:43" ht="18">
       <c r="A86" s="1">
         <v>94</v>
       </c>
@@ -6114,17 +7632,22 @@
       <c r="K86" s="45"/>
       <c r="L86" s="7"/>
       <c r="M86" s="45"/>
-      <c r="AE86" t="s">
+      <c r="N86" s="58"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="65"/>
+      <c r="Q86" s="65"/>
+      <c r="R86" s="71"/>
+      <c r="AM86" t="s">
         <v>8</v>
       </c>
-      <c r="AF86" t="s">
+      <c r="AN86" t="s">
         <v>8</v>
       </c>
-      <c r="AG86" t="s">
+      <c r="AO86" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="18">
+    <row r="87" spans="1:43" ht="18">
       <c r="A87" s="1">
         <v>95</v>
       </c>
@@ -6144,17 +7667,22 @@
       <c r="K87" s="45"/>
       <c r="L87" s="7"/>
       <c r="M87" s="45"/>
-      <c r="AE87" t="s">
+      <c r="N87" s="58"/>
+      <c r="O87" s="65"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="65"/>
+      <c r="R87" s="71"/>
+      <c r="AM87" t="s">
         <v>9</v>
       </c>
-      <c r="AF87" t="s">
+      <c r="AN87" t="s">
         <v>9</v>
       </c>
-      <c r="AG87" t="s">
+      <c r="AO87" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="18">
+    <row r="88" spans="1:43" ht="18">
       <c r="A88" s="1">
         <v>96</v>
       </c>
@@ -6174,17 +7702,22 @@
       <c r="K88" s="45"/>
       <c r="L88" s="7"/>
       <c r="M88" s="45"/>
-      <c r="AE88" t="s">
+      <c r="N88" s="58"/>
+      <c r="O88" s="65"/>
+      <c r="P88" s="65"/>
+      <c r="Q88" s="65"/>
+      <c r="R88" s="71"/>
+      <c r="AM88" t="s">
         <v>10</v>
       </c>
-      <c r="AF88" t="s">
+      <c r="AN88" t="s">
         <v>11</v>
       </c>
-      <c r="AG88" t="s">
+      <c r="AO88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="18">
+    <row r="89" spans="1:43" ht="18">
       <c r="A89" s="1">
         <v>97</v>
       </c>
@@ -6204,17 +7737,22 @@
       <c r="K89" s="45"/>
       <c r="L89" s="7"/>
       <c r="M89" s="45"/>
-      <c r="AE89" t="s">
+      <c r="N89" s="58"/>
+      <c r="O89" s="65"/>
+      <c r="P89" s="65"/>
+      <c r="Q89" s="65"/>
+      <c r="R89" s="71"/>
+      <c r="AM89" t="s">
         <v>12</v>
       </c>
-      <c r="AF89" t="s">
+      <c r="AN89" t="s">
         <v>10</v>
       </c>
-      <c r="AG89" t="s">
+      <c r="AO89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="18">
+    <row r="90" spans="1:43" ht="18">
       <c r="A90" s="1">
         <v>98</v>
       </c>
@@ -6234,11 +7772,16 @@
       <c r="K90" s="45"/>
       <c r="L90" s="7"/>
       <c r="M90" s="45"/>
-      <c r="AE90" s="19" t="s">
+      <c r="N90" s="58"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65"/>
+      <c r="Q90" s="65"/>
+      <c r="R90" s="71"/>
+      <c r="AM90" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="18">
+    <row r="91" spans="1:43" ht="18">
       <c r="A91" s="1">
         <v>99</v>
       </c>
@@ -6258,11 +7801,16 @@
       <c r="K91" s="45"/>
       <c r="L91" s="7"/>
       <c r="M91" s="45"/>
-      <c r="AE91" s="19" t="s">
+      <c r="N91" s="58"/>
+      <c r="O91" s="65"/>
+      <c r="P91" s="65"/>
+      <c r="Q91" s="65"/>
+      <c r="R91" s="71"/>
+      <c r="AM91" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="18">
+    <row r="92" spans="1:43" ht="18">
       <c r="A92" s="1">
         <v>100</v>
       </c>
@@ -6282,11 +7830,16 @@
       <c r="K92" s="45"/>
       <c r="L92" s="7"/>
       <c r="M92" s="45"/>
-      <c r="AE92" s="19" t="s">
+      <c r="N92" s="58"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="65"/>
+      <c r="R92" s="71"/>
+      <c r="AM92" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="18">
+    <row r="93" spans="1:43" ht="18">
       <c r="A93" s="1">
         <v>101</v>
       </c>
@@ -6306,11 +7859,16 @@
       <c r="K93" s="45"/>
       <c r="L93" s="7"/>
       <c r="M93" s="45"/>
-      <c r="AE93" s="19" t="s">
+      <c r="N93" s="58"/>
+      <c r="O93" s="65"/>
+      <c r="P93" s="65"/>
+      <c r="Q93" s="65"/>
+      <c r="R93" s="71"/>
+      <c r="AM93" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="18">
+    <row r="94" spans="1:43" ht="18">
       <c r="A94" s="1">
         <v>102</v>
       </c>
@@ -6330,11 +7888,16 @@
       <c r="K94" s="45"/>
       <c r="L94" s="7"/>
       <c r="M94" s="45"/>
-      <c r="AE94" s="19" t="s">
+      <c r="N94" s="58"/>
+      <c r="O94" s="65"/>
+      <c r="P94" s="65"/>
+      <c r="Q94" s="65"/>
+      <c r="R94" s="71"/>
+      <c r="AM94" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="18">
+    <row r="95" spans="1:43" ht="18">
       <c r="A95" s="1">
         <v>103</v>
       </c>
@@ -6354,11 +7917,16 @@
       <c r="K95" s="45"/>
       <c r="L95" s="7"/>
       <c r="M95" s="45"/>
-      <c r="AE95" s="19" t="s">
+      <c r="N95" s="58"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="65"/>
+      <c r="R95" s="71"/>
+      <c r="AM95" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:35" ht="18">
+    <row r="96" spans="1:43" ht="18">
       <c r="A96" s="1">
         <v>104</v>
       </c>
@@ -6372,11 +7940,11 @@
       <c r="G96" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AE96" s="19" t="s">
+      <c r="AM96" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="18">
+    <row r="97" spans="1:47" ht="18">
       <c r="A97" s="1">
         <v>105</v>
       </c>
@@ -6390,11 +7958,11 @@
       <c r="G97" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AE97" s="19" t="s">
+      <c r="AM97" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="18">
+    <row r="98" spans="1:47" ht="18">
       <c r="A98" s="1">
         <v>106</v>
       </c>
@@ -6408,14 +7976,14 @@
       <c r="G98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AF98" t="s">
+      <c r="AN98" t="s">
         <v>24</v>
       </c>
-      <c r="AG98" t="s">
+      <c r="AO98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:47">
       <c r="A99" s="1">
         <v>107</v>
       </c>
@@ -6425,45 +7993,45 @@
       <c r="G99" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AG99" t="s">
+      <c r="AO99" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:47">
       <c r="A100" s="1">
         <v>108</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AG100" t="s">
+      <c r="AO100" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:47">
       <c r="A101" s="1">
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AG101" t="s">
+      <c r="AO101" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="18">
+    <row r="102" spans="1:47" ht="18">
       <c r="A102" s="1">
         <v>110</v>
       </c>
@@ -6475,38 +8043,43 @@
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
       <c r="G102" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AH102" t="s">
+      <c r="N102" s="60"/>
+      <c r="O102" s="66"/>
+      <c r="P102" s="66"/>
+      <c r="Q102" s="66"/>
+      <c r="R102" s="77"/>
+      <c r="AP102" t="s">
         <v>7</v>
       </c>
-      <c r="AI102" t="s">
+      <c r="AQ102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="18">
+    <row r="103" spans="1:47" ht="18">
       <c r="A103" s="1">
         <v>111</v>
       </c>
       <c r="B103" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C103" s="19" t="s">
         <v>358</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>359</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
@@ -6524,12 +8097,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="18">
+    <row r="104" spans="1:47" ht="18">
       <c r="A104" s="1">
         <v>112</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C104" s="27" t="s">
         <v>253</v>
@@ -6554,8 +8127,13 @@
         <v>30</v>
       </c>
       <c r="M104" s="43"/>
-    </row>
-    <row r="105" spans="1:39" ht="18">
+      <c r="N104" s="56"/>
+      <c r="O104" s="63"/>
+      <c r="P104" s="63"/>
+      <c r="Q104" s="63"/>
+      <c r="R104" s="74"/>
+    </row>
+    <row r="105" spans="1:47" ht="18">
       <c r="A105" s="1">
         <v>113</v>
       </c>
@@ -6573,7 +8151,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:47">
       <c r="A106" s="1">
         <v>114</v>
       </c>
@@ -6587,7 +8165,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:47">
       <c r="A107" s="1">
         <v>115</v>
       </c>
@@ -6601,19 +8179,19 @@
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="18">
+    <row r="108" spans="1:47" ht="18">
       <c r="A108" s="1">
         <v>116</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H108" s="19" t="s">
         <v>28</v>
@@ -6627,8 +8205,13 @@
       </c>
       <c r="L108" s="19"/>
       <c r="M108" s="43"/>
-    </row>
-    <row r="109" spans="1:39" ht="18">
+      <c r="N108" s="56"/>
+      <c r="O108" s="63"/>
+      <c r="P108" s="63"/>
+      <c r="Q108" s="63"/>
+      <c r="R108" s="74"/>
+    </row>
+    <row r="109" spans="1:47" ht="18">
       <c r="A109" s="1">
         <v>117</v>
       </c>
@@ -6650,8 +8233,13 @@
       <c r="K109" s="43"/>
       <c r="L109" s="19"/>
       <c r="M109" s="43"/>
-    </row>
-    <row r="110" spans="1:39">
+      <c r="N109" s="56"/>
+      <c r="O109" s="63"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="63"/>
+      <c r="R109" s="74"/>
+    </row>
+    <row r="110" spans="1:47">
       <c r="A110" s="1">
         <v>118</v>
       </c>
@@ -6659,10 +8247,10 @@
         <v>259</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>24</v>
@@ -6671,12 +8259,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:47">
       <c r="A111" s="1">
         <v>119</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G111" t="s">
         <v>261</v>
@@ -6688,466 +8276,518 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:47">
       <c r="A112" s="1">
         <v>120</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G112" t="s">
         <v>49</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH112" t="s">
-        <v>373</v>
-      </c>
-      <c r="AI112" t="s">
-        <v>373</v>
-      </c>
-      <c r="AJ112" s="33"/>
-      <c r="AK112" s="33"/>
-      <c r="AM112" s="4"/>
-    </row>
-    <row r="113" spans="1:39">
+        <v>346</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR112" s="33"/>
+      <c r="AS112" s="33"/>
+      <c r="AU112" s="4"/>
+    </row>
+    <row r="113" spans="1:47">
       <c r="A113" s="1">
         <v>121</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G113" t="s">
         <v>260</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="114" spans="1:39">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:47">
       <c r="A114" s="1">
         <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="G114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H114" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I114" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="N114" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="115" spans="1:39">
+        <v>349</v>
+      </c>
+      <c r="R114" s="69" t="s">
+        <v>569</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="115" spans="1:47">
       <c r="A115" s="1">
         <v>123</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G115" t="s">
+        <v>333</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G115" t="s">
-        <v>334</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="116" spans="1:39">
+    </row>
+    <row r="116" spans="1:47">
       <c r="A116" s="1">
         <v>124</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G116" t="s">
+        <v>333</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G116" t="s">
-        <v>334</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="117" spans="1:39">
+    </row>
+    <row r="117" spans="1:47">
       <c r="A117" s="1">
         <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G117" t="s">
+        <v>332</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G117" t="s">
-        <v>333</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:39">
+    </row>
+    <row r="118" spans="1:47">
       <c r="A118" s="1">
         <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="G118" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:39">
+        <v>293</v>
+      </c>
+      <c r="R118" s="47"/>
+    </row>
+    <row r="119" spans="1:47">
       <c r="A119" s="1">
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G119" t="s">
+        <v>326</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G119" t="s">
-        <v>327</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="M119" s="4">
         <v>1</v>
       </c>
-      <c r="AL119" s="4">
+      <c r="Q119" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT119" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:47">
       <c r="A120" s="1">
         <v>128</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G120" t="s">
         <v>62</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M120" s="4">
         <v>3</v>
       </c>
-      <c r="AL120" s="4">
+      <c r="Q120" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT120" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:47">
       <c r="A121" s="1">
         <v>129</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G121" t="s">
+        <v>330</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G121" t="s">
-        <v>331</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="M121" s="4">
         <v>2</v>
       </c>
-      <c r="AL121" s="4">
+      <c r="Q121" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT121" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:47">
       <c r="A122" s="1">
         <v>130</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G122" t="s">
+        <v>329</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G122" t="s">
-        <v>330</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="M122" s="4">
         <v>4</v>
       </c>
-      <c r="AL122" s="4">
+      <c r="Q122" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT122" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:47">
       <c r="A123" s="1">
         <v>131</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G123" t="s">
+        <v>328</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G123" t="s">
-        <v>329</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="M123" s="4">
         <v>6</v>
       </c>
-      <c r="AL123" s="4">
+      <c r="Q123" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT123" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:47">
       <c r="A124" s="1">
         <v>132</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G124" t="s">
         <v>50</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M124" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AL124" s="4" t="s">
+      <c r="Q124" s="47">
+        <v>4</v>
+      </c>
+      <c r="AT124" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:47">
       <c r="A125" s="1">
         <v>133</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G125" t="s">
         <v>49</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M125" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AL125" s="4" t="s">
+      <c r="Q125" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT125" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:47">
       <c r="A126" s="1">
         <v>134</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M126" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AL126" s="4" t="s">
+      <c r="AT126" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:47">
       <c r="A127" s="1">
         <v>135</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G127" t="s">
+        <v>326</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G127" t="s">
-        <v>327</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="M127" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH127" t="s">
+      <c r="AP127" t="s">
         <v>108</v>
       </c>
-      <c r="AI127" t="s">
+      <c r="AQ127" t="s">
         <v>108</v>
       </c>
-      <c r="AM127" s="40"/>
-    </row>
-    <row r="128" spans="1:39">
+      <c r="AU127" s="40"/>
+    </row>
+    <row r="128" spans="1:47">
       <c r="A128" s="1">
         <v>136</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M128" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH128" t="s">
+      <c r="AP128" t="s">
         <v>109</v>
       </c>
-      <c r="AI128" t="s">
+      <c r="AQ128" t="s">
         <v>109</v>
       </c>
-      <c r="AJ128" s="40"/>
-      <c r="AK128" s="40"/>
-      <c r="AL128" s="47"/>
-      <c r="AM128" s="40"/>
-    </row>
-    <row r="129" spans="1:39">
+      <c r="AR128" s="40"/>
+      <c r="AS128" s="40"/>
+      <c r="AT128" s="47"/>
+      <c r="AU128" s="40"/>
+    </row>
+    <row r="129" spans="1:47">
       <c r="A129" s="1">
         <v>137</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G129" t="s">
+        <v>325</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G129" t="s">
-        <v>326</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="M129" s="4">
         <v>7</v>
       </c>
-      <c r="AL129" s="4">
+      <c r="Q129" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT129" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:47">
       <c r="A130" s="1">
         <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G130" t="s">
         <v>51</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="AH130" t="s">
-        <v>374</v>
-      </c>
-      <c r="AI130" t="s">
-        <v>374</v>
-      </c>
-      <c r="AM130" s="4"/>
-    </row>
-    <row r="131" spans="1:39">
+        <v>348</v>
+      </c>
+      <c r="AP130" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ130" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU130" s="4"/>
+    </row>
+    <row r="131" spans="1:47">
       <c r="A131" s="1">
         <v>139</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G131" t="s">
         <v>324</v>
-      </c>
-      <c r="G131" t="s">
-        <v>325</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:47">
       <c r="A132" s="1">
         <v>140</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="G132" t="s">
         <v>156</v>
@@ -7156,83 +8796,107 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:47">
       <c r="A133" s="1">
         <v>141</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G133" t="s">
         <v>338</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G133" t="s">
-        <v>339</v>
       </c>
       <c r="M133" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:47">
       <c r="A134" s="1">
         <v>142</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G134" t="s">
+        <v>339</v>
+      </c>
+      <c r="M134" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="M134" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="135" spans="1:39">
+      <c r="O134" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="P134" s="47" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="135" spans="1:47">
       <c r="A135" s="1">
         <v>143</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M135" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:39">
+      <c r="O135" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="P135" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:47">
       <c r="A136" s="1">
         <v>144</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G136" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M136" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="137" spans="1:39">
+      <c r="O136" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="P136" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:47">
       <c r="A137" s="1">
         <v>145</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G137" t="s">
         <v>61</v>
@@ -7240,636 +8904,916 @@
       <c r="M137" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:39">
+      <c r="O137" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P137" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:47">
       <c r="A138" s="1">
         <v>146</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M138" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:47">
       <c r="A139" s="1">
         <v>147</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="G139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M139" s="4">
         <v>5</v>
       </c>
-      <c r="AL139" s="4">
+      <c r="Q139" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT139" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:47">
       <c r="A140" s="1">
         <v>148</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>482</v>
+        <v>575</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G140" t="s">
         <v>156</v>
       </c>
-      <c r="AH140" t="s">
+      <c r="X140" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="AI140" t="s">
+      <c r="Y140" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="AJ140" s="40"/>
-      <c r="AK140" s="40"/>
-      <c r="AL140" s="47" t="s">
+      <c r="Z140" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="AM140" s="40"/>
-    </row>
-    <row r="141" spans="1:39">
+      <c r="AP140" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ140" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR140" s="40"/>
+      <c r="AS140" s="40"/>
+      <c r="AT140" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU140" s="40"/>
+    </row>
+    <row r="141" spans="1:47">
       <c r="A141" s="1">
         <v>148</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G141" t="s">
         <v>396</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G141" t="s">
-        <v>397</v>
-      </c>
-      <c r="AL141" s="4" t="s">
+      <c r="O141" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="P141" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="X141" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AM141" t="s">
+      <c r="Y141" s="86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:39">
+      <c r="Z141" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT141" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:47">
       <c r="A142" s="1">
         <v>149</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G142" t="s">
         <v>64</v>
       </c>
-      <c r="AH142" t="s">
+      <c r="X142" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AI142" t="s">
+      <c r="Y142" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AJ142" s="40"/>
-      <c r="AK142" s="40"/>
-      <c r="AL142" s="47" t="s">
+      <c r="Z142" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AM142" s="40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="143" spans="1:39">
+      <c r="AP142" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ142" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR142" s="40"/>
+      <c r="AS142" s="40"/>
+      <c r="AT142" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU142" s="40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="143" spans="1:47">
       <c r="A143" s="1">
         <v>149</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G143" t="s">
-        <v>425</v>
-      </c>
-      <c r="AL143" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="X143" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AM143" t="s">
+      <c r="Y143" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z143" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU143" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:47">
       <c r="A144" s="1">
         <v>150</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G144" t="s">
         <v>64</v>
       </c>
-      <c r="AH144">
+      <c r="X144" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y144" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z144" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP144">
         <v>1</v>
       </c>
-      <c r="AL144" s="4" t="s">
+      <c r="AT144" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AM144" s="33"/>
-    </row>
-    <row r="145" spans="1:39">
+      <c r="AU144" s="33"/>
+    </row>
+    <row r="145" spans="1:47">
       <c r="A145" s="1">
         <v>150</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G145" t="s">
-        <v>426</v>
-      </c>
-      <c r="AL145" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="X145" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AM145" t="s">
+      <c r="Y145" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z145" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU145" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:47">
       <c r="A146" s="1">
         <v>151</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G146" t="s">
         <v>64</v>
       </c>
-      <c r="AH146">
+      <c r="AP146">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:47">
       <c r="A147" s="1">
         <v>151</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G147" t="s">
-        <v>427</v>
-      </c>
-      <c r="AL147" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="X147" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y147" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z147" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT147" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:47">
       <c r="A148" s="1">
         <v>152</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G148" t="s">
         <v>64</v>
       </c>
-      <c r="AH148">
+      <c r="AP148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:47">
       <c r="A149" s="1">
         <v>152</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G149" t="s">
-        <v>428</v>
-      </c>
-      <c r="AL149" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="X149" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y149" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z149" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT149" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AM149" t="s">
+      <c r="AU149" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:47">
       <c r="A150" s="1">
         <v>153</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G150" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH150" t="s">
+        <v>385</v>
+      </c>
+      <c r="X150" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="AI150" t="s">
+      <c r="Y150" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="AJ150" s="40"/>
-      <c r="AK150" s="40"/>
-      <c r="AL150" s="47"/>
-      <c r="AM150" s="40">
+      <c r="Z150" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP150" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ150" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR150" s="40"/>
+      <c r="AS150" s="40"/>
+      <c r="AT150" s="47"/>
+      <c r="AU150" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:47">
       <c r="A151" s="1">
         <v>153</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G151" t="s">
-        <v>429</v>
-      </c>
-      <c r="AL151" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="X151" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y151" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z151" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT151" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:47">
       <c r="A152" s="1">
         <v>154</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G152" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH152" t="s">
+        <v>333</v>
+      </c>
+      <c r="X152" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="AI152" t="s">
+      <c r="Y152" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="AM152">
+      <c r="Z152" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ152" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU152">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:47">
       <c r="A153" s="1">
         <v>154</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G153" t="s">
+        <v>429</v>
+      </c>
+      <c r="X153" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y153" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z153" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT153" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G153" t="s">
-        <v>430</v>
-      </c>
-      <c r="AL153" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="154" spans="1:39">
+    </row>
+    <row r="154" spans="1:47">
       <c r="A154" s="1">
         <v>155</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G154" t="s">
         <v>156</v>
       </c>
-      <c r="AH154" t="s">
+      <c r="X154" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="AI154" t="s">
+      <c r="Y154" s="86" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="155" spans="1:39">
+      <c r="Z154" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP154" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:47">
       <c r="A155" s="1">
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G155" t="s">
-        <v>431</v>
-      </c>
-      <c r="AL155" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="X155" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y155" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z155" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT155" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AM155" t="s">
+      <c r="AU155" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:47">
       <c r="A156" s="1">
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G156" t="s">
         <v>387</v>
       </c>
-      <c r="G156" t="s">
-        <v>388</v>
-      </c>
-      <c r="AH156" t="s">
+      <c r="X156" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="AI156" s="4" t="s">
+      <c r="Y156" s="86" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="157" spans="1:39">
+      <c r="Z156" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP156" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ156" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:47">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G157" t="s">
-        <v>432</v>
-      </c>
-      <c r="AL157" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="X157" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y157" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z157" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT157" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AM157" t="s">
+      <c r="AU157" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:47">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G158" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL158" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="X158" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y158" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z158" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT158" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AM158" t="s">
+      <c r="AU158" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:47">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="G159" t="s">
-        <v>434</v>
-      </c>
-      <c r="AL159" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="X159" s="86" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="160" spans="1:39">
+      <c r="Y159" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z159" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT159" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160" spans="1:47">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G160" t="s">
-        <v>435</v>
-      </c>
-      <c r="AL160" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="X160" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="AM160" t="s">
+      <c r="Y160" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z160" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT160" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU160" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:47">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G161" t="s">
-        <v>436</v>
-      </c>
-      <c r="AL161" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="X161" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AM161" t="s">
+      <c r="Y161" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z161" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU161" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:47">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G162" t="s">
-        <v>437</v>
-      </c>
-      <c r="AL162" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="P162" s="47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="163" spans="1:39">
+      <c r="Q162" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="X162" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y162" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z162" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT162" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:47">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G163" t="s">
-        <v>438</v>
-      </c>
-      <c r="AL163" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="N163" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="X163" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y163" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z163" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT163" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:47">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G164" t="s">
-        <v>439</v>
-      </c>
-      <c r="AL164" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="X164" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="AM164" t="s">
+      <c r="Y164" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z164" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU164" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:47">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="G165" t="s">
-        <v>454</v>
-      </c>
-      <c r="AL165" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="O165" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P165" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="X165" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AM165" t="s">
+      <c r="Y165" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z165" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT165" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU165" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:47">
       <c r="A166" s="1">
         <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G166" t="s">
-        <v>455</v>
-      </c>
-      <c r="AL166" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="X166" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="AM166" t="s">
+      <c r="Y166" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z166" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT166" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU166" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:47">
       <c r="A167" s="1">
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G167" t="s">
-        <v>456</v>
-      </c>
-      <c r="AL167" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="N167" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P167" s="47">
+        <v>8</v>
+      </c>
+      <c r="X167" s="86" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="168" spans="1:39">
+      <c r="Y167" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z167" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT167" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:47">
       <c r="A168" s="1">
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G168" t="s">
-        <v>457</v>
-      </c>
-      <c r="AL168" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q168" s="27">
+        <v>0</v>
+      </c>
+      <c r="R168" s="75"/>
+      <c r="AT168" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:47">
       <c r="A169" s="1">
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G169" t="s">
-        <v>458</v>
-      </c>
-      <c r="AL169" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q169" s="47">
+        <v>1</v>
+      </c>
+      <c r="AT169" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:47">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -7880,13 +9824,13 @@
         <v>74</v>
       </c>
       <c r="G170" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL170" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AT170" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:47">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -7894,146 +9838,273 @@
         <v>75</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G171" t="s">
-        <v>460</v>
-      </c>
-      <c r="AL171" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="AT171" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:47">
       <c r="A172" s="1">
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AM172" t="s">
+        <v>396</v>
+      </c>
+      <c r="X172" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y172" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z172" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU172" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:47">
       <c r="A173" s="1">
         <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="G173" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AM173" t="s">
+        <v>396</v>
+      </c>
+      <c r="X173" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y173" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z173" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU173" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="1:47">
       <c r="A174" s="1">
         <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C174" s="27"/>
       <c r="D174" s="27"/>
       <c r="E174" s="27"/>
       <c r="G174" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AM174" t="s">
+        <v>396</v>
+      </c>
+      <c r="X174" s="86">
+        <v>3</v>
+      </c>
+      <c r="Y174" s="86">
+        <v>3</v>
+      </c>
+      <c r="Z174" s="86">
+        <v>3</v>
+      </c>
+      <c r="AU174" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:47">
       <c r="A175" s="1">
         <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AM175" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU175" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:47">
       <c r="A176" s="1">
         <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30">
       <c r="A177" s="1">
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="V177" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD177" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:30">
       <c r="A178" s="1">
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G178" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD178" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30">
+      <c r="A179" s="1">
+        <v>179</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="V178" s="46" t="s">
-        <v>29</v>
+      <c r="Q179" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30">
+      <c r="A180" s="1">
+        <v>180</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O180" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30">
+      <c r="A181" s="1">
+        <v>181</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q181" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30">
+      <c r="A182" s="1">
+        <v>182</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="O182" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+    </row>
+    <row r="183" spans="1:30">
+      <c r="A183" s="1">
+        <v>183</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="X183" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y183" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z183" s="86" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM176">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AU182">
+    <sortCondition ref="A1:A182"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W58" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AE58" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C104" r:id="rId2" location="!/hgnc_id/HGNC:17347" display="https://www.genenames.org/data/gene-symbol-report/ - !/hgnc_id/HGNC:17347" xr:uid="{1873E7CF-1D7B-D14F-A2F0-AA10DB41E974}"/>
     <hyperlink ref="B111" r:id="rId3" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP27" xr:uid="{5625DE21-DCEF-9048-90E6-80F7019D7C3E}"/>
     <hyperlink ref="B143" r:id="rId4" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP200" xr:uid="{0E3742EF-9A4A-474F-9783-FC2EE040C049}"/>
     <hyperlink ref="B170" r:id="rId5" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:BUD13" xr:uid="{75A88AA6-40F6-DE4A-9C76-EA000DD59DD9}"/>
+    <hyperlink ref="Q168" r:id="rId6" location="0" display="https://www.rcsb.org/sequence/7ABH - 0" xr:uid="{3E5170DF-DD13-1C47-8AFB-4061999AD13F}"/>
+    <hyperlink ref="R49" r:id="rId7" location="O" display="https://www.rcsb.org/sequence/5NRL - O" xr:uid="{52BDCEAD-C8DD-6E49-B355-258C4ED02F20}"/>
+    <hyperlink ref="R46" r:id="rId8" location="Q" display="https://www.rcsb.org/sequence/5NRL - Q" xr:uid="{05BAD0F3-7DBE-5840-A0E7-08146A64E879}"/>
+    <hyperlink ref="R14" r:id="rId9" location="W" display="https://www.rcsb.org/sequence/5NRL - W" xr:uid="{3230D218-A17C-0D49-83A0-362933260018}"/>
+    <hyperlink ref="X9" r:id="rId10" location="O" display="https://www.rcsb.org/sequence/7W5A - O" xr:uid="{D33319E3-A9A5-BD40-844B-CC638D745E10}"/>
+    <hyperlink ref="Y9" r:id="rId11" location="O" display="https://www.rcsb.org/sequence/7W5A - O" xr:uid="{F9F43B7C-BCC5-004D-B794-327EC5F0D69E}"/>
+    <hyperlink ref="Z9" r:id="rId12" location="O" display="https://www.rcsb.org/sequence/7W5A - O" xr:uid="{1CADDC72-F5EC-864F-A96A-F55F4D0A90D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId6"/>
+  <legacyDrawing r:id="rId13"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
